--- a/code/src/ОЛ.xlsx
+++ b/code/src/ОЛ.xlsx
@@ -953,14 +953,14 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,11 +1329,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1700,11 +1700,11 @@
       <c r="C41" s="10"/>
     </row>
     <row r="42" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
     </row>
     <row r="43" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
